--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3962.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3962.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.208706547700897</v>
+        <v>0.8836420178413391</v>
       </c>
       <c r="B1">
-        <v>2.280108438164468</v>
+        <v>1.946284294128418</v>
       </c>
       <c r="C1">
-        <v>6.108234264474673</v>
+        <v>2.793691396713257</v>
       </c>
       <c r="D1">
-        <v>3.425815652715093</v>
+        <v>2.673215389251709</v>
       </c>
       <c r="E1">
-        <v>1.403910263905034</v>
+        <v>0.8693271279335022</v>
       </c>
     </row>
   </sheetData>
